--- a/REVER_DailyTracker_20200714.xlsx
+++ b/REVER_DailyTracker_20200714.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7830" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="Nirmal" sheetId="17" r:id="rId10"/>
     <sheet name="Mathes" sheetId="13" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="17">
   <si>
     <t>No</t>
   </si>
@@ -70,19 +70,21 @@
   <si>
     <t>Regression testing on B2B and B2C app</t>
   </si>
+  <si>
+    <t>VASTHU SHASTHARA</t>
+  </si>
+  <si>
+    <t>Create frmwork for Vasthu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,158 +115,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,7 +137,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,188 +159,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -531,252 +209,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,7 +222,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -803,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -812,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -824,7 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="39" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -833,7 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -846,58 +282,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="標準 2" xfId="39"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1159,27 +548,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="104.714285714286" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1203,7 +592,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" s="24" customFormat="1" ht="28.9" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" s="24" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="25"/>
       <c r="B2" s="26"/>
       <c r="C2" s="25"/>
@@ -1221,23 +610,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1268,29 +657,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="51.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="51.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1358,21 +745,21 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="20" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="20" spans="2:3">
       <c r="C20" s="9" t="s">
         <v>5</v>
       </c>
@@ -1403,29 +790,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1469,23 +854,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1516,29 +901,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1564,7 +947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:7">
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1575,7 +958,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" ht="15.75" spans="1:7">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1586,23 +969,23 @@
       <c r="F3" s="7"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1633,29 +1016,148 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="10"/>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="11"/>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="12"/>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="13"/>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1699,23 +1201,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1746,29 +1248,127 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1"/>
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="19" spans="2:3">
+      <c r="C19" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="10"/>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="11"/>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="12"/>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="13"/>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1812,23 +1412,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1859,131 +1459,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" s="1" customFormat="1"/>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="19" spans="3:3">
-      <c r="C19" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="10"/>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="11"/>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="12"/>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="13"/>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2027,23 +1523,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2074,29 +1570,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2140,23 +1634,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2187,29 +1681,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2253,23 +1745,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2300,120 +1792,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
-      <c r="C22" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="10"/>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="11"/>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="12"/>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="13"/>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/REVER_DailyTracker_20200714.xlsx
+++ b/REVER_DailyTracker_20200714.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D4A138-944F-4DDE-8FBC-128C8B2528EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370E92E8-86B6-4784-9F05-4799698FE66E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="82">
   <si>
     <t>Task</t>
   </si>
@@ -318,6 +318,15 @@
   </si>
   <si>
     <t>Correction of ReturnCredit Task has been completed and tested in all SSCs and running smooth.</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>DB Creation</t>
+  </si>
+  <si>
+    <t>Email Merge from Google form</t>
   </si>
 </sst>
 </file>
@@ -327,7 +336,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +357,14 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -426,10 +443,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -466,9 +486,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{D68E3BCF-3248-4E9B-8371-5B4F37FA5C92}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -783,22 +808,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+    <sheetView topLeftCell="A151" workbookViewId="0">
       <selection activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -819,7 +844,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -829,8 +854,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -842,7 +867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -853,10 +878,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -870,9 +895,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -886,9 +911,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -902,8 +927,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:7">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -920,19 +945,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -950,13 +975,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -970,7 +995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -984,7 +1009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="45">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -992,7 +1017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="45">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1000,12 +1025,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -1013,7 +1038,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" ht="30">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1024,7 +1049,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" ht="30">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1035,7 +1060,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -1046,12 +1071,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7">
       <c r="G51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" ht="105">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1062,7 +1087,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7">
       <c r="D57" t="s">
         <v>30</v>
       </c>
@@ -1073,12 +1098,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7">
       <c r="G58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" ht="75">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1086,7 +1111,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" ht="60">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1094,7 +1119,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:7" ht="60">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1102,7 +1127,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:7">
       <c r="D70" t="s">
         <v>30</v>
       </c>
@@ -1110,12 +1135,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:7" ht="45">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:7">
       <c r="D73" t="s">
         <v>44</v>
       </c>
@@ -1123,7 +1148,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:7">
       <c r="D76" t="s">
         <v>44</v>
       </c>
@@ -1131,7 +1156,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:7" ht="45">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1139,7 +1164,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:7">
       <c r="D83" t="s">
         <v>30</v>
       </c>
@@ -1147,12 +1172,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:7" ht="30">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:7" ht="60">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1160,7 +1185,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:7">
       <c r="D93" t="s">
         <v>51</v>
       </c>
@@ -1168,7 +1193,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:7" ht="45">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1176,7 +1201,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:7" ht="60">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1184,7 +1209,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:7">
       <c r="D104" t="s">
         <v>30</v>
       </c>
@@ -1192,12 +1217,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:7">
       <c r="G105" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:7" ht="30">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1205,7 +1230,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:7">
       <c r="D112" t="s">
         <v>30</v>
       </c>
@@ -1213,7 +1238,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:7" ht="45">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1221,7 +1246,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:7">
       <c r="D120" t="s">
         <v>30</v>
       </c>
@@ -1229,7 +1254,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:7" ht="30">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1237,12 +1262,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:7">
       <c r="G124" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:7" ht="30">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1250,7 +1275,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:7" ht="30">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1258,7 +1283,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:7">
       <c r="D132" t="s">
         <v>30</v>
       </c>
@@ -1266,7 +1291,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:7" ht="45">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1274,7 +1299,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:7" ht="60">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1282,7 +1307,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:7" ht="75">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1290,7 +1315,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:7">
       <c r="D146" t="s">
         <v>30</v>
       </c>
@@ -1298,12 +1323,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:7">
       <c r="G147" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:7" ht="45">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1311,7 +1336,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="154" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:7">
       <c r="D154" t="s">
         <v>30</v>
       </c>
@@ -1319,12 +1344,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="155" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:7">
       <c r="G155" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:7">
       <c r="D158" t="s">
         <v>30</v>
       </c>
@@ -1332,22 +1357,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:7">
       <c r="G159" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="160" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:7">
       <c r="G160" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:7">
       <c r="G161" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:7">
       <c r="D164" t="s">
         <v>30</v>
       </c>
@@ -1370,18 +1395,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1404,7 +1429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1413,7 +1438,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1422,46 +1447,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1478,22 +1503,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1516,64 +1541,78 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22">
+        <v>44026</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22">
+        <v>44026</v>
+      </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1594,18 +1633,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1628,7 +1667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1637,7 +1676,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1646,46 +1685,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1706,18 +1745,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1740,7 +1779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1749,7 +1788,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1758,46 +1797,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1818,18 +1857,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1852,7 +1891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1873,7 +1912,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1882,46 +1921,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1942,18 +1981,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1976,7 +2015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1985,7 +2024,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1994,46 +2033,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2054,18 +2093,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2088,7 +2127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2097,7 +2136,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2106,46 +2145,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2166,18 +2205,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2200,7 +2239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2209,7 +2248,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2218,46 +2257,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2278,18 +2317,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2312,7 +2351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2321,7 +2360,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2330,46 +2369,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200714.xlsx
+++ b/REVER_DailyTracker_20200714.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370E92E8-86B6-4784-9F05-4799698FE66E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D52C73-252A-4A8E-973B-E2F8DF12712C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="84">
   <si>
     <t>Task</t>
   </si>
@@ -327,6 +327,12 @@
   </si>
   <si>
     <t>Email Merge from Google form</t>
+  </si>
+  <si>
+    <t>QMVAR-RPA</t>
+  </si>
+  <si>
+    <t>creditdetails change</t>
   </si>
 </sst>
 </file>
@@ -812,15 +818,15 @@
       <selection activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -855,7 +861,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -881,7 +887,7 @@
     <row r="6" spans="1:7" s="4" customFormat="1"/>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
     <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -913,7 +919,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1"/>
     <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -981,7 +987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30">
+    <row r="25" spans="2:7" ht="28.8">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -995,7 +1001,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30">
+    <row r="28" spans="2:7" ht="28.8">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1009,7 +1015,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="45">
+    <row r="32" spans="2:7" ht="43.2">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1017,7 +1023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="45">
+    <row r="36" spans="4:7" ht="28.8">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1038,7 +1044,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="30">
+    <row r="44" spans="4:7" ht="28.8">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1049,7 +1055,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="30">
+    <row r="47" spans="4:7" ht="28.8">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1076,7 +1082,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="105">
+    <row r="54" spans="4:7" ht="72">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1103,7 +1109,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="75">
+    <row r="60" spans="4:7" ht="72">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1111,7 +1117,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="60">
+    <row r="64" spans="4:7" ht="57.6">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1119,7 +1125,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="60">
+    <row r="67" spans="4:7" ht="43.2">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1135,7 +1141,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="45">
+    <row r="71" spans="4:7" ht="28.8">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
@@ -1156,7 +1162,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="45">
+    <row r="79" spans="4:7" ht="28.8">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1172,12 +1178,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="30">
+    <row r="84" spans="4:7" ht="28.8">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="60">
+    <row r="88" spans="4:7" ht="57.6">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1193,7 +1199,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="45">
+    <row r="97" spans="4:7" ht="43.2">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1201,7 +1207,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="60">
+    <row r="100" spans="4:7" ht="43.2">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1222,7 +1228,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="30">
+    <row r="108" spans="4:7" ht="28.8">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1238,7 +1244,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="45">
+    <row r="116" spans="4:7" ht="28.8">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1254,7 +1260,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="30">
+    <row r="123" spans="4:7" ht="28.8">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1267,7 +1273,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="30">
+    <row r="126" spans="4:7" ht="28.8">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1275,7 +1281,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="30">
+    <row r="129" spans="4:7" ht="28.8">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1291,7 +1297,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="45">
+    <row r="135" spans="4:7" ht="28.8">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1299,7 +1305,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="60">
+    <row r="139" spans="4:7" ht="43.2">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1307,7 +1313,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="75">
+    <row r="143" spans="4:7" ht="43.2">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1328,7 +1334,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="45">
+    <row r="150" spans="4:7" ht="43.2">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1395,15 +1401,15 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1503,19 +1509,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1633,15 +1639,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1741,19 +1747,19 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1782,9 +1788,15 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.5</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
@@ -1857,15 +1869,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1981,15 +1993,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2093,15 +2105,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2205,15 +2217,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2317,15 +2329,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
